--- a/Ubuntu内核编译.xlsx
+++ b/Ubuntu内核编译.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>准备安装需要的环境</t>
   </si>
@@ -213,6 +213,346 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>编译内核</t>
+  </si>
+  <si>
+    <t>1.编译启动映像</t>
+  </si>
+  <si>
+    <r>
+      <t>(N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CPU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的核数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">*2,make bzImage -j2 =&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单核处理，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">make bzImage -j4=&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双核处理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能会出现两个错误：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fatal error: openssl/opensslv.h: No such file or directory </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>bc: not found</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。需要安装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>apt-get install bc</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编译模块</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安装模块</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安装内核</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改启动grub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>grub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>就是管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ubuntu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统启动的一个程序，我们编译好的内核要运行就要修改对应的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>grub</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mkinitramfs 4.5.0 -o /boot/initrd.img-4.5.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>update-grub2(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该命令会帮我们自动修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>grub)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用uname -a命令查看自己的系统版本：</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是因为没有安装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>openssl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：安装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>openssl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> apt-get install libssl-dev</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>make menuconfig</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,7 +565,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>选择</t>
+      <t>载入以前的配置文件：</t>
     </r>
     <r>
       <rPr>
@@ -275,6 +615,49 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
+      <t>OK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>EXIT</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置内核并保存：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>Save</t>
     </r>
     <r>
@@ -350,171 +733,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>编译内核</t>
-  </si>
-  <si>
-    <t>1.编译启动映像</t>
-  </si>
-  <si>
-    <r>
-      <t>(N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>CPU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的核数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">*2,make bzImage -j2 =&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单核处理，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">make bzImage -j4=&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>双核处理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能会出现两个错误：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">fatal error: openssl/opensslv.h: No such file or directory </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>bc: not found</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。需要安装</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>bc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>apt-get install bc</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>编译模块</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">make modules -jN </t>
-    </r>
+    <t>安装内核以及模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sudo make bzImage -j2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sudo make install</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sudo make modules_install</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>sudo make modules -j2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -548,195 +814,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>安装内核</t>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>安装模块</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>make modules_install</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>安装内核</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>make install</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更改启动grub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>grub</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>就是管理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ubuntu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统启动的一个程序，我们编译好的内核要运行就要修改对应的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>grub</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mkinitramfs 4.5.0 -o /boot/initrd.img-4.5.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>update-grub2(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>该命令会帮我们自动修改</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>grub)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用uname -a命令查看自己的系统版本：</t>
-  </si>
-  <si>
-    <t>make bzImage -jN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是因为没有安装</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>openssl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：安装</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>openssl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> apt-get install libssl-dev</t>
+    <r>
+      <t xml:space="preserve">big zip Image </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内核用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gzip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压缩</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -745,7 +854,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -781,6 +890,20 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -802,11 +925,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -895,7 +1020,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>133989</xdr:colOff>
+      <xdr:colOff>8974</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -936,15 +1061,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>141686</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>123799</xdr:rowOff>
+      <xdr:rowOff>123798</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -962,8 +1087,196 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="4324350"/>
-          <a:ext cx="3009900" cy="1228699"/>
+          <a:off x="1" y="4269580"/>
+          <a:ext cx="3005138" cy="1212031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5953</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>65484</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>189540</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>65485</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5953" y="5959078"/>
+          <a:ext cx="3047040" cy="1785938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>310754</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>175022</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>567927</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57165</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3049192" y="3211116"/>
+          <a:ext cx="2995611" cy="1132299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>255985</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>160735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>37529</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>29766</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1029" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2994423" y="4446985"/>
+          <a:ext cx="4573810" cy="940594"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>363336</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>169069</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1030" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3119438" y="5903119"/>
+          <a:ext cx="4774602" cy="1945481"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -984,201 +1297,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>308602</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1027" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="5657850"/>
-          <a:ext cx="3051802" cy="1809750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>400051</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>146462</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1028" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3143251" y="3343275"/>
-          <a:ext cx="3000374" cy="1146587"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>257795</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1029" name="Picture 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3219450" y="4524376"/>
-          <a:ext cx="4582145" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>363337</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1030" name="Picture 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3124200" y="5534025"/>
-          <a:ext cx="4782937" cy="1971675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:colOff>408385</xdr:colOff>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1219,13 +1344,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:colOff>408385</xdr:colOff>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1550,13 +1675,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1625,110 +1753,121 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2" t="s">
+      <c r="C49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C46" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="2" t="s">
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="1" t="s">
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
